--- a/doc/test.xlsx
+++ b/doc/test.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="試験項目" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="集計" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="【試験項目】▶" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="シナリオ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ダイアログ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="78">
   <si>
     <t xml:space="preserve">大項目</t>
   </si>
@@ -497,6 +500,74 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">プレイヤー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">の得点が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">になること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">x1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b val="true"/>
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
@@ -530,15 +601,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">王</t>
+      <t xml:space="preserve">CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">モードが</t>
     </r>
     <r>
       <rPr>
@@ -546,7 +617,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">x1</t>
+      <t xml:space="preserve">OFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">であること</t>
     </r>
   </si>
   <si>
@@ -579,9 +658,661 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">プレイヤー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">行のセルがハイライトされていること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">プレイヤー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">行のセルがハイライトされていないこと</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4,7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">セルが領土になっていること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">歩を選択し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3,7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">セルをクリックする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3,7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">セルが歩になっていること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">プレイヤー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">の得点が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">になること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">第</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">プレイヤー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">攻撃可能であること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">プレイヤー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">行のセルがハイライトされていないこと</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">第</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">手以降</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">例外など発生せず最後までプレイできること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲーム修了までプレイする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修了判定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勝敗のダイアログが表示されること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">得点の計算が一致すること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勝者の判定が正しいこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異常マス配置シナリオ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ダイアログ」試験項目にて実施</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引き分けシナリオ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「通常プレイシナリオ」と同じ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">マスの将棋盤を作成できること</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">歩が配置できること</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">歩を選択し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">セルをクリックする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">歩を選択し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">セルをクリックする</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">引き分けである旨が記載されていること</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">駒が</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">個シナリオ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">すべてのコマ数が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">である</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">駒が</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">個シナリオ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">歩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">個のみ使用可能である</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">歩を選択し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">セルをクリックする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">歩を選択し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">セルをクリックする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">不正な設定値シナリオ</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">駒</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">コマ数設定ファイルに全角数字をセットする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プレイ続行不可能であること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">設定ファイルに不備があることがダイアログ表示されること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どの設定に問題があるかが特定できること</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">不正な設定値シナリオ</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(CPU)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">CPU</t>
     </r>
     <r>
@@ -590,7 +1321,7 @@
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">モードが</t>
+      <t xml:space="preserve">モード設定に</t>
     </r>
     <r>
       <rPr>
@@ -598,510 +1329,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">OFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">であること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">プレイヤー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">行のセルがハイライトされていること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">プレイヤー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">行のセルがハイライトされていないこと</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4,7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">セルが領土になっていること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">歩を選択し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3,7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">セルをクリックする</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3,7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">セルが歩になっていること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">第</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">手</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">プレイヤー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">攻撃可能であること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">プレイヤー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">行のセルがハイライトされていないこと</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">第</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">手以降</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">例外など発生せず最後までプレイできること</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲーム修了までプレイする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修了判定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">勝敗のダイアログが表示されること</t>
-  </si>
-  <si>
-    <t xml:space="preserve">得点の計算が一致すること</t>
-  </si>
-  <si>
-    <t xml:space="preserve">勝者の判定が正しいこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異常マス配置シナリオ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「通常プレイシナリオ」と同じ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自身の領土でないため配置不可のダイアログが表示されること</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">金を選択し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">セルをクリックする</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">金が配置されないこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金のコマ数が変化しないこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">得点が変化しないこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プレイヤーのターンが変更されないこと</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">金を選択し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1,9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">セルをクリックする</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイアログが表示されないこと</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">金を選択し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">9,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">セルをクリックする</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">金が配置されること</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金の攻撃範囲のセルが領土になること</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">プレイヤー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">の得点が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">になること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">プレイヤー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">のターンになること</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">第</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="TakaoPGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">手</t>
+      <t xml:space="preserve">true/false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">以外の値をセットする</t>
     </r>
   </si>
 </sst>
@@ -1516,14 +1752,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:U58"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.17"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.17"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:U75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
-      <selection pane="bottomRight" activeCell="E52" activeCellId="0" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2053,84 +2341,84 @@
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="36"/>
       <c r="G15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U15" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>11</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>37</v>
       </c>
+      <c r="F16" s="36"/>
       <c r="G16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="37"/>
+      <c r="H16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="14" t="n">
@@ -2143,7 +2431,7 @@
       <c r="F17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="31"/>
       <c r="I17" s="32"/>
       <c r="J17" s="33"/>
@@ -2194,13 +2482,11 @@
       <c r="C19" s="16"/>
       <c r="D19" s="23"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="37" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="31"/>
-      <c r="H19" s="31" t="s">
-        <v>42</v>
-      </c>
+      <c r="H19" s="31"/>
       <c r="I19" s="32"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -2224,10 +2510,12 @@
       <c r="D20" s="23"/>
       <c r="E20" s="36"/>
       <c r="F20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -2249,53 +2537,25 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="36"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U21" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="14" t="n">
@@ -2331,25 +2591,53 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="35" t="s">
         <v>46</v>
       </c>
+      <c r="F23" s="36"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="37"/>
+      <c r="H23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="14" t="n">
@@ -2358,53 +2646,25 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="36"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T24" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U24" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="14" t="n">
@@ -2418,9 +2678,7 @@
         <v>48</v>
       </c>
       <c r="G25" s="31"/>
-      <c r="H25" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="H25" s="31"/>
       <c r="I25" s="32"/>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
@@ -2443,7 +2701,7 @@
       <c r="C26" s="16"/>
       <c r="D26" s="23"/>
       <c r="E26" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="31"/>
@@ -2499,10 +2757,12 @@
       <c r="D27" s="23"/>
       <c r="E27" s="36"/>
       <c r="F27" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
       <c r="I27" s="32"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
@@ -2524,25 +2784,53 @@
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
+      <c r="E28" s="35" t="s">
         <v>52</v>
       </c>
+      <c r="F28" s="36"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="37"/>
+      <c r="H28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U28" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="14" t="n">
@@ -2576,57 +2864,27 @@
         <f aca="false">ROW()-5</f>
         <v>25</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U30" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="14" t="n">
@@ -2634,83 +2892,83 @@
         <v>26</v>
       </c>
       <c r="C31" s="16"/>
-      <c r="D31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T31" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U31" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>27</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="30"/>
+      <c r="C32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="14" t="n">
@@ -2718,107 +2976,81 @@
         <v>28</v>
       </c>
       <c r="C33" s="16"/>
-      <c r="D33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="31"/>
-      <c r="H33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T33" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U33" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>29</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U34" s="29" t="s">
+      <c r="C34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2828,28 +3060,56 @@
         <v>30</v>
       </c>
       <c r="C35" s="16"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="37"/>
+      <c r="D35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="14" t="n">
@@ -2858,12 +3118,12 @@
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37" t="s">
-        <v>58</v>
+      <c r="E36" s="30"/>
+      <c r="F36" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="G36" s="31"/>
-      <c r="H36" s="24"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="32"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -2876,7 +3136,7 @@
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
       <c r="T36" s="34"/>
-      <c r="U36" s="37"/>
+      <c r="U36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="14" t="n">
@@ -2884,55 +3144,111 @@
         <v>32</v>
       </c>
       <c r="C37" s="16"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="D37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="37"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U37" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>33</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37" t="s">
-        <v>60</v>
-      </c>
+      <c r="E38" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="36"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="37"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>34</v>
@@ -2944,7 +3260,9 @@
         <v>61</v>
       </c>
       <c r="G39" s="31"/>
-      <c r="H39" s="24"/>
+      <c r="H39" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="I39" s="32"/>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
@@ -2959,7 +3277,7 @@
       <c r="T39" s="34"/>
       <c r="U39" s="37"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>35</v>
@@ -2967,52 +3285,24 @@
       <c r="C40" s="16"/>
       <c r="D40" s="23"/>
       <c r="E40" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="31"/>
-      <c r="H40" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S40" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T40" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U40" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="37"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="14" t="n">
@@ -3023,11 +3313,11 @@
       <c r="D41" s="23"/>
       <c r="E41" s="36"/>
       <c r="F41" s="37" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G41" s="31"/>
       <c r="H41" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="33"/>
@@ -3041,7 +3331,7 @@
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
       <c r="T41" s="34"/>
-      <c r="U41" s="30"/>
+      <c r="U41" s="37"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="14" t="n">
@@ -3050,25 +3340,53 @@
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="E42" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="36"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="30"/>
+      <c r="H42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T42" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U42" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="14" t="n">
@@ -3078,11 +3396,11 @@
       <c r="C43" s="16"/>
       <c r="D43" s="23"/>
       <c r="E43" s="36"/>
-      <c r="F43" s="30" t="s">
-        <v>59</v>
+      <c r="F43" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="G43" s="31"/>
-      <c r="H43" s="24"/>
+      <c r="H43" s="31"/>
       <c r="I43" s="32"/>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
@@ -3105,11 +3423,11 @@
       <c r="C44" s="16"/>
       <c r="D44" s="23"/>
       <c r="E44" s="36"/>
-      <c r="F44" s="30" t="s">
-        <v>60</v>
+      <c r="F44" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="G44" s="31"/>
-      <c r="H44" s="24"/>
+      <c r="H44" s="31"/>
       <c r="I44" s="32"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -3132,11 +3450,11 @@
       <c r="C45" s="16"/>
       <c r="D45" s="23"/>
       <c r="E45" s="36"/>
-      <c r="F45" s="30" t="s">
-        <v>61</v>
+      <c r="F45" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="G45" s="31"/>
-      <c r="H45" s="24"/>
+      <c r="H45" s="31"/>
       <c r="I45" s="32"/>
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
@@ -3156,53 +3474,55 @@
         <f aca="false">ROW()-5</f>
         <v>41</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O46" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T46" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U46" s="29" t="s">
+      <c r="C46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3212,28 +3532,56 @@
         <v>42</v>
       </c>
       <c r="C47" s="16"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="37"/>
+      <c r="D47" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U47" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="14" t="n">
@@ -3242,12 +3590,12 @@
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37" t="s">
-        <v>65</v>
+      <c r="E48" s="30"/>
+      <c r="F48" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="G48" s="31"/>
-      <c r="H48" s="24"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
@@ -3260,7 +3608,7 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
       <c r="T48" s="34"/>
-      <c r="U48" s="37"/>
+      <c r="U48" s="30"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="14" t="n">
@@ -3268,26 +3616,54 @@
         <v>44</v>
       </c>
       <c r="C49" s="16"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="D49" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="37"/>
+      <c r="H49" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T49" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U49" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="14" t="n">
@@ -3296,25 +3672,53 @@
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="23"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37" t="s">
-        <v>67</v>
-      </c>
+      <c r="E50" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="36"/>
       <c r="G50" s="31"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="37"/>
+      <c r="H50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U50" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="14" t="n">
@@ -3325,10 +3729,10 @@
       <c r="D51" s="23"/>
       <c r="E51" s="36"/>
       <c r="F51" s="37" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G51" s="31"/>
-      <c r="H51" s="24"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="32"/>
       <c r="J51" s="33"/>
       <c r="K51" s="33"/>
@@ -3341,7 +3745,7 @@
       <c r="R51" s="33"/>
       <c r="S51" s="33"/>
       <c r="T51" s="34"/>
-      <c r="U51" s="37"/>
+      <c r="U51" s="30"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="14" t="n">
@@ -3350,55 +3754,27 @@
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="23"/>
-      <c r="E52" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="G52" s="31"/>
-      <c r="H52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T52" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U52" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="30"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>48</v>
@@ -3407,12 +3783,10 @@
       <c r="D53" s="23"/>
       <c r="E53" s="36"/>
       <c r="F53" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G53" s="31"/>
-      <c r="H53" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="H53" s="31"/>
       <c r="I53" s="32"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
@@ -3425,34 +3799,64 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="34"/>
-      <c r="U53" s="37"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U53" s="30"/>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>49</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="37"/>
+      <c r="C54" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="14" t="n">
@@ -3460,26 +3864,56 @@
         <v>50</v>
       </c>
       <c r="C55" s="16"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="37"/>
+      <c r="D55" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T55" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U55" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="14" t="n">
@@ -3488,12 +3922,12 @@
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="23"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37" t="s">
-        <v>67</v>
+      <c r="E56" s="30"/>
+      <c r="F56" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="G56" s="31"/>
-      <c r="H56" s="24"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="32"/>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
@@ -3506,59 +3940,728 @@
       <c r="R56" s="33"/>
       <c r="S56" s="33"/>
       <c r="T56" s="34"/>
-      <c r="U56" s="37"/>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U56" s="30"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>52</v>
       </c>
       <c r="C57" s="16"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="D57" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="31"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="37"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T57" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U57" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="n">
         <f aca="false">ROW()-5</f>
         <v>53</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="23"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="36"/>
       <c r="G58" s="31"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="37"/>
+      <c r="H58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T58" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U58" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>54</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" s="32"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="37"/>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>55</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="37"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>56</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="32"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="37"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>57</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="36"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T62" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U62" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>58</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="30"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>59</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="30"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>60</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="30"/>
+    </row>
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>61</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T66" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U66" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>62</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O67" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T67" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U67" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>63</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="30"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>64</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="30"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>65</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="30"/>
+    </row>
+    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>66</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S71" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T71" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U71" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>67</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T72" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U72" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>68</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="30"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>69</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="30"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="14" t="n">
+        <f aca="false">ROW()-5</f>
+        <v>70</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3568,17 +4671,17 @@
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="O4:T4"/>
   </mergeCells>
-  <conditionalFormatting sqref="U11:U14 F11:F14 H11:H14">
+  <conditionalFormatting sqref="U11:U15 F11:F15 H11:H15 I15:N15">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U20 F16 U16 F17:H20 H16">
+  <conditionalFormatting sqref="F17 U17:U22 F18:H21 H17 G22:H22">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27:U29 F22 U22:U23 U25 G27:H29 G22:H23 F25:H25 I28:N29">
+  <conditionalFormatting sqref="U29:U31 F24 U24:U25 U27 G29:H31 G24:H25 F27:H27 I30:N31">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3588,7 +4691,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16 G8:G13">
+  <conditionalFormatting sqref="G17 G8:G13">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3603,12 +4706,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F25">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
+  <conditionalFormatting sqref="F29:F31">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3648,57 +4751,57 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H16">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U15">
+  <conditionalFormatting sqref="U16">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G23">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H23">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
+  <conditionalFormatting sqref="U23">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G26">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H26">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U24">
+  <conditionalFormatting sqref="U26">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G28">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H28">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
+  <conditionalFormatting sqref="U28">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -3708,1129 +4811,2115 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11:N15">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:N22">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:N31 I24:N25 I27:N27">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:T15">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:T22">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29:T31 O24:T25 O27:T27">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33 F33 H33 U43:U45 F43:F45 H43:H45">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33 G43:G45">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:N33 I43:N45">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:T33 O43:T45">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:N14">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:N20">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:N29 I22:N23 I25:N25">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11:T14">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:T20">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:T29 O22:T23 O25:T25">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T9">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26">
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
-    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U58 F58 H58 U35:U39 F35:F39 H35:H39 U47:U51 F47:F51 H47:H51">
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58 G32:G39 G47:G51">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U32">
     <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="U33 F33 H33">
     <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U31">
+  <conditionalFormatting sqref="G33">
     <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="I33:N33">
     <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U33">
+  <conditionalFormatting sqref="O33:T33">
     <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="U39:U41 F39 H39:H40">
     <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U34">
+  <conditionalFormatting sqref="F36">
     <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:N58 I35:N39 I47:N51">
+  <conditionalFormatting sqref="G36:G41">
     <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
+  <conditionalFormatting sqref="H36">
     <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="U36">
     <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="G35">
     <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
+  <conditionalFormatting sqref="H35">
     <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32">
+  <conditionalFormatting sqref="U35">
     <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N32">
+  <conditionalFormatting sqref="H37">
     <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="U37">
     <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="H38">
     <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+  <conditionalFormatting sqref="U38">
     <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
+  <conditionalFormatting sqref="I39:N41">
     <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31">
+  <conditionalFormatting sqref="I36">
     <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31">
+  <conditionalFormatting sqref="J36">
     <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="K36">
     <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="L36">
     <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
+  <conditionalFormatting sqref="M36">
     <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
+  <conditionalFormatting sqref="N36">
     <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33">
+  <conditionalFormatting sqref="I35">
     <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
+  <conditionalFormatting sqref="J35">
     <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="K35">
     <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="L35">
     <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="M35">
     <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="N35">
     <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
+  <conditionalFormatting sqref="I37">
     <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
+  <conditionalFormatting sqref="J37">
     <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O58:T58 O35:T39 O47:T51">
+  <conditionalFormatting sqref="K37">
     <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32">
+  <conditionalFormatting sqref="L37">
     <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P32">
+  <conditionalFormatting sqref="M37">
     <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q32">
+  <conditionalFormatting sqref="N37">
     <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32">
+  <conditionalFormatting sqref="I38">
     <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32">
+  <conditionalFormatting sqref="J38">
     <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
+  <conditionalFormatting sqref="K38">
     <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31">
+  <conditionalFormatting sqref="L38">
     <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
+  <conditionalFormatting sqref="M38">
     <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
+  <conditionalFormatting sqref="N38">
     <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R31">
+  <conditionalFormatting sqref="O39:T41">
     <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S31">
+  <conditionalFormatting sqref="O36">
     <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31">
+  <conditionalFormatting sqref="P36">
     <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O33">
+  <conditionalFormatting sqref="Q36">
     <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P33">
+  <conditionalFormatting sqref="R36">
     <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q33">
+  <conditionalFormatting sqref="S36">
     <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R33">
+  <conditionalFormatting sqref="T36">
     <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S33">
+  <conditionalFormatting sqref="O35">
     <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T33">
+  <conditionalFormatting sqref="P35">
     <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34">
+  <conditionalFormatting sqref="Q35">
     <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34">
+  <conditionalFormatting sqref="R35">
     <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
+  <conditionalFormatting sqref="S35">
     <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34">
+  <conditionalFormatting sqref="T35">
     <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S34">
+  <conditionalFormatting sqref="O37">
     <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+  <conditionalFormatting sqref="P37">
     <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U41:U45 F42:F45 H41:H45">
+  <conditionalFormatting sqref="Q37">
     <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G45">
+  <conditionalFormatting sqref="R37">
     <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="S37">
     <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U40">
+  <conditionalFormatting sqref="T37">
     <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:N45">
+  <conditionalFormatting sqref="O38">
     <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="P38">
     <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="Q38">
     <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="R38">
     <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
+  <conditionalFormatting sqref="S38">
     <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M40">
+  <conditionalFormatting sqref="T38">
     <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N40">
+  <conditionalFormatting sqref="F41">
     <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O41:T45">
+  <conditionalFormatting sqref="F41">
     <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O40">
+  <conditionalFormatting sqref="H41">
     <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P40">
+  <conditionalFormatting sqref="U43:U45 G43:H45 I44:N45">
     <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q40">
+  <conditionalFormatting sqref="F43:F45">
     <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40">
+  <conditionalFormatting sqref="G42">
     <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S40">
+  <conditionalFormatting sqref="H42">
     <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
+  <conditionalFormatting sqref="U42">
     <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U47:U51 F47:F51 H47:H51">
+  <conditionalFormatting sqref="I43:N45">
     <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G51">
+  <conditionalFormatting sqref="I42">
     <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="J42">
     <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U46">
+  <conditionalFormatting sqref="K42">
     <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:N51">
+  <conditionalFormatting sqref="L42">
     <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="M42">
     <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="N42">
     <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
+  <conditionalFormatting sqref="O43:T45">
     <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
+  <conditionalFormatting sqref="O42">
     <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M46">
+  <conditionalFormatting sqref="P42">
     <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N46">
+  <conditionalFormatting sqref="Q42">
     <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47:T51">
+  <conditionalFormatting sqref="R42">
     <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="S42">
     <cfRule type="expression" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P46">
+  <conditionalFormatting sqref="T42">
     <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q46">
+  <conditionalFormatting sqref="U51:U53 F51:F53 H51:H53">
     <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R46">
+  <conditionalFormatting sqref="G51:G53">
     <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S46">
+  <conditionalFormatting sqref="I51:N53">
     <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T46">
+  <conditionalFormatting sqref="O51:T53">
     <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F48">
     <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U53:U57 F53:F57 H53:H57">
+  <conditionalFormatting sqref="G48:G49">
     <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G57">
+  <conditionalFormatting sqref="H48">
     <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:N57">
+  <conditionalFormatting sqref="U48">
     <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O53:T57">
+  <conditionalFormatting sqref="G47">
     <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U53:U57 F53:F57 H53:H57">
+  <conditionalFormatting sqref="H47">
     <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G57">
+  <conditionalFormatting sqref="U47">
     <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H49">
     <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U52">
+  <conditionalFormatting sqref="U49">
     <cfRule type="expression" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:N57">
+  <conditionalFormatting sqref="I48">
     <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
+  <conditionalFormatting sqref="J48">
     <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+  <conditionalFormatting sqref="K48">
     <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="L48">
     <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
+  <conditionalFormatting sqref="M48">
     <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M52">
+  <conditionalFormatting sqref="N48">
     <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
+  <conditionalFormatting sqref="I47">
     <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O53:T57">
+  <conditionalFormatting sqref="J47">
     <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O52">
+  <conditionalFormatting sqref="K47">
     <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52">
+  <conditionalFormatting sqref="L47">
     <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q52">
+  <conditionalFormatting sqref="M47">
     <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R52">
+  <conditionalFormatting sqref="N47">
     <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S52">
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
+  <conditionalFormatting sqref="J49">
     <cfRule type="expression" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48">
+    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q48">
+    <cfRule type="expression" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R48">
+    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S48">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47">
+    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P47">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q47">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R47">
+    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S47">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P49">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R49">
+    <cfRule type="expression" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S49">
+    <cfRule type="expression" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T49">
+    <cfRule type="expression" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U51:U53 G51:H53 I52:N53">
+    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F53">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U50">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:N53">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M50">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:T53">
+    <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O50">
+    <cfRule type="expression" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q50">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R50">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S50">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U63:U65 F63:F65 H63:H65">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G65">
+    <cfRule type="expression" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:N65">
+    <cfRule type="expression" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O63:T65">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U59:U61 F59 H59:H60">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:G61">
+    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U55">
+    <cfRule type="expression" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U57">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U58">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:N61">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56">
+    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="expression" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N55">
+    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
+    <cfRule type="expression" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57">
+    <cfRule type="expression" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57">
+    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58">
+    <cfRule type="expression" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58">
+    <cfRule type="expression" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O59:T61">
+    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O56">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P56">
+    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q56">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R56">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56">
+    <cfRule type="expression" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O55">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q55">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R55">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T55">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57">
+    <cfRule type="expression" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q57">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R57">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S57">
+    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O58">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P58">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58">
+    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R58">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S58">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="expression" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="expression" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U63:U65 G63:H65 I64:N65">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63:F65">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U62">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:N65">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O63:T65">
+    <cfRule type="expression" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O62">
+    <cfRule type="expression" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P62">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q62">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R62">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S62">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T62">
+    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G70">
+    <cfRule type="expression" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68:H70">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U68:U70">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U67">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:I70">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J70">
+    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:K70">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L68:L70">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68:M70">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68:N70">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="expression" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N67">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O68:O70">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P68:P70">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q68:Q70">
+    <cfRule type="expression" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R68:R70">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S68:S70">
+    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T68:T70">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O67">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P67">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q67">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R67">
+    <cfRule type="expression" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S67">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T67">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F70">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:G75">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H75">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73:U75">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
+    <cfRule type="expression" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="expression" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U72">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I75">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73:J75">
+    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:K75">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73:L75">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M73:M75">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73:N75">
+    <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72">
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M72">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O73:O75">
+    <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P73:P75">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73:Q75">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R73:R75">
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73:S75">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T73:T75">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O72">
+    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P72">
+    <cfRule type="expression" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q72">
+    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R72">
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S72">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T72">
+    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75 F73">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.17"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/doc/test.xlsx
+++ b/doc/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="集計" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="107">
   <si>
     <t xml:space="preserve">大項目</t>
   </si>
@@ -40,6 +40,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -49,6 +50,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -60,6 +62,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -69,6 +72,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回目</t>
     </r>
@@ -107,6 +111,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NG</t>
     </r>
@@ -116,6 +121,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">理由</t>
     </r>
@@ -141,6 +147,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9x9</t>
     </r>
@@ -149,6 +156,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">マスの将棋盤を作成できること</t>
     </r>
@@ -159,6 +167,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -167,6 +176,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩</t>
     </r>
@@ -175,6 +185,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x9</t>
     </r>
@@ -188,6 +199,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -196,6 +208,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">金</t>
     </r>
@@ -204,6 +217,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x2</t>
     </r>
@@ -215,6 +229,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第</t>
     </r>
@@ -224,6 +239,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -233,6 +249,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手</t>
     </r>
@@ -243,6 +260,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -251,6 +269,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">銀</t>
     </r>
@@ -259,6 +278,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x2</t>
     </r>
@@ -269,6 +289,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -277,6 +298,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -285,6 +307,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が先手であること</t>
     </r>
@@ -295,6 +318,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -303,6 +327,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">香車</t>
     </r>
@@ -311,6 +336,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x2</t>
     </r>
@@ -321,6 +347,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -329,6 +356,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -337,6 +365,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">側</t>
     </r>
@@ -345,6 +374,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -353,6 +383,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行のセルがハイライトされていること</t>
     </r>
@@ -363,6 +394,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -371,6 +403,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">桂馬</t>
     </r>
@@ -379,6 +412,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x2</t>
     </r>
@@ -389,6 +423,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6,3</t>
     </r>
@@ -397,6 +432,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルが領土になっていること</t>
     </r>
@@ -407,6 +443,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -415,6 +452,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">飛車</t>
     </r>
@@ -423,6 +461,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x1</t>
     </r>
@@ -433,6 +472,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩を選択し、</t>
     </r>
@@ -441,6 +481,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7,3</t>
     </r>
@@ -449,6 +490,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルをクリックする</t>
     </r>
@@ -459,6 +501,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7,3</t>
     </r>
@@ -467,6 +510,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルが歩になっていること</t>
     </r>
@@ -477,6 +521,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -485,6 +530,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">角</t>
     </r>
@@ -493,6 +539,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x1</t>
     </r>
@@ -503,6 +550,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -511,6 +559,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -519,6 +568,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の得点が</t>
     </r>
@@ -527,6 +577,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -535,6 +586,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">になること</t>
     </r>
@@ -545,6 +597,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -553,6 +606,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">王</t>
     </r>
@@ -561,6 +615,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x1</t>
     </r>
@@ -572,6 +627,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第</t>
     </r>
@@ -581,6 +637,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -590,6 +647,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手</t>
     </r>
@@ -600,6 +658,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CPU</t>
     </r>
@@ -608,6 +667,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">モードが</t>
     </r>
@@ -616,6 +676,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OFF</t>
     </r>
@@ -624,6 +685,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">であること</t>
     </r>
@@ -634,6 +696,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -642,6 +705,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -650,6 +714,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">攻撃可能であること</t>
     </r>
@@ -660,6 +725,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -668,6 +734,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -676,6 +743,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">側</t>
     </r>
@@ -684,6 +752,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -692,6 +761,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行のセルがハイライトされていること</t>
     </r>
@@ -702,6 +772,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -710,6 +781,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -718,6 +790,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">側</t>
     </r>
@@ -726,6 +799,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -734,6 +808,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行のセルがハイライトされていないこと</t>
     </r>
@@ -744,6 +819,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4,7</t>
     </r>
@@ -752,6 +828,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルが領土になっていること</t>
     </r>
@@ -762,6 +839,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩を選択し、</t>
     </r>
@@ -770,6 +848,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3,7</t>
     </r>
@@ -778,6 +857,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルをクリックする</t>
     </r>
@@ -788,6 +868,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3,7</t>
     </r>
@@ -796,6 +877,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルが歩になっていること</t>
     </r>
@@ -806,6 +888,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -814,6 +897,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -822,6 +906,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の得点が</t>
     </r>
@@ -830,6 +915,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -838,6 +924,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">になること</t>
     </r>
@@ -849,6 +936,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第</t>
     </r>
@@ -858,6 +946,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -867,6 +956,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手</t>
     </r>
@@ -877,6 +967,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -885,6 +976,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -893,6 +985,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">攻撃可能であること</t>
     </r>
@@ -903,6 +996,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">プレイヤー</t>
     </r>
@@ -911,6 +1005,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -919,6 +1014,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">側</t>
     </r>
@@ -927,6 +1023,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -935,6 +1032,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行のセルがハイライトされていないこと</t>
     </r>
@@ -946,6 +1044,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第</t>
     </r>
@@ -955,6 +1054,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -964,6 +1064,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手以降</t>
     </r>
@@ -1004,6 +1105,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2x2</t>
     </r>
@@ -1012,6 +1114,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">マスの将棋盤を作成できること</t>
     </r>
@@ -1025,6 +1128,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩を選択し、</t>
     </r>
@@ -1033,6 +1137,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2,1</t>
     </r>
@@ -1041,6 +1146,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルをクリックする</t>
     </r>
@@ -1051,6 +1157,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩を選択し、</t>
     </r>
@@ -1059,6 +1166,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1,2</t>
     </r>
@@ -1067,6 +1175,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルをクリックする</t>
     </r>
@@ -1081,6 +1190,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">駒が</t>
     </r>
@@ -1090,6 +1200,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1099,6 +1210,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">個シナリオ</t>
     </r>
@@ -1109,6 +1221,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">すべてのコマ数が</t>
     </r>
@@ -1117,6 +1230,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1125,6 +1239,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">である</t>
     </r>
@@ -1136,6 +1251,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">駒が</t>
     </r>
@@ -1145,6 +1261,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -1154,6 +1271,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">個シナリオ</t>
     </r>
@@ -1164,6 +1282,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩</t>
     </r>
@@ -1172,6 +1291,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -1180,6 +1300,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">個のみ使用可能である</t>
     </r>
@@ -1190,6 +1311,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩を選択し、</t>
     </r>
@@ -1198,6 +1320,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9,1</t>
     </r>
@@ -1206,6 +1329,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルをクリックする</t>
     </r>
@@ -1216,6 +1340,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">歩を選択し、</t>
     </r>
@@ -1224,6 +1349,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1,1</t>
     </r>
@@ -1232,6 +1358,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">セルをクリックする</t>
     </r>
@@ -1243,6 +1370,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不正な設定値シナリオ</t>
     </r>
@@ -1252,6 +1380,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1261,6 +1390,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">駒</t>
     </r>
@@ -1270,6 +1400,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1293,6 +1424,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不正な設定値シナリオ</t>
     </r>
@@ -1302,6 +1434,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(CPU)</t>
     </r>
@@ -1312,6 +1445,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CPU</t>
     </r>
@@ -1320,6 +1454,7 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">モード設定に</t>
     </r>
@@ -1328,6 +1463,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">true/false</t>
     </r>
@@ -1336,9 +1472,115 @@
         <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以外の値をセットする</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲーム状態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配置先</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="TakaoPGothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">回目</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">将棋盤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターン数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プレイヤー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ステータス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常/異常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト理由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9x9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相手のエリア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">領地外配置不可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陣地の境界値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陣地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自身のエリア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陣地は1ターン目のみ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2駒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駒の上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駒の上不可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1駒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2領地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">領地の上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">領地の上不可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1領地</t>
   </si>
 </sst>
 </file>
@@ -1348,11 +1590,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1374,6 +1617,20 @@
       <sz val="10"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1381,24 +1638,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE4E5"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1431,7 +1677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1440,7 +1686,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="hair"/>
       <right/>
       <top style="hair"/>
       <bottom/>
@@ -1456,6 +1702,48 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
       <top/>
       <bottom style="hair"/>
       <diagonal/>
@@ -1469,20 +1757,20 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right/>
+      <right style="hair"/>
       <top/>
-      <bottom/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="hair"/>
       <right style="hair"/>
-      <top/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1506,9 +1794,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1521,52 +1808,92 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1577,23 +1904,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1605,81 +1964,190 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="無題1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="TakaoPGothic"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFBCE4E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="TakaoPGothic"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1709,7 +2177,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0369A3"/>
-      <rgbColor rgb="FFBCE4E5"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1720,7 +2188,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1791,7 +2259,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1804,14 +2272,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:U75"/>
+  <dimension ref="B2:U76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1823,7 +2291,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="9" style="2" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="10.17"/>
   </cols>
   <sheetData>
@@ -1849,2819 +2317,2841 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="5"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="8"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="21" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="29" t="s">
+      <c r="H7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>3</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="30"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>4</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="25" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="29" t="s">
+      <c r="H9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>5</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="35" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" s="29" t="s">
+      <c r="H10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>6</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>7</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="37"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>8</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="37"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>9</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="29" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="37"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>10</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="37"/>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14" t="n">
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="39"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>11</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="35" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="25" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U16" s="29" t="s">
+      <c r="H16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="37"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>13</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>14</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="n">
+      <c r="B20" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>15</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="37"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>16</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="37"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="37"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>18</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="35" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U23" s="29" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>19</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>20</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="37"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>21</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="35" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U26" s="29" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U26" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>22</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31" t="s">
+      <c r="G27" s="35"/>
+      <c r="H27" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="37"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>23</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="35" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U28" s="29" t="s">
+      <c r="F28" s="41"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U28" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>24</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="37"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="39"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>25</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="37"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="39"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>26</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="37"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>27</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U32" s="21" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U32" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>28</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="39"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>29</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U34" s="21" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>30</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T35" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U35" s="29" t="s">
+      <c r="H35" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>31</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="29" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="30"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="39"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>32</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S37" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T37" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U37" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="14" t="n">
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U37" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>33</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="35" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U38" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="14" t="n">
+      <c r="F38" s="41"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>34</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="24" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="37"/>
-    </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="14" t="n">
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="39"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>35</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="35" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="37"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="14" t="n">
+      <c r="B41" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>36</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="24" t="s">
+      <c r="G41" s="35"/>
+      <c r="H41" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="37"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>37</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="35" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O42" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S42" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T42" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U42" s="29" t="s">
+      <c r="F42" s="41"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T42" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U42" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="14" t="n">
+      <c r="B43" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>38</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="30"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="14" t="n">
+      <c r="B44" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>39</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="30"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14" t="n">
+      <c r="B45" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>40</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="30"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>41</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U46" s="21" t="s">
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>42</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="22" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24" t="s">
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T47" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U47" s="29" t="s">
+      <c r="H47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T47" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U47" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>43</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="29" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="30"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="14" t="n">
+      <c r="B49" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>44</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O49" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T49" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U49" s="29" t="s">
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S49" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T49" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U49" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="14" t="n">
+      <c r="B50" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>45</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="35" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T50" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U50" s="29" t="s">
+      <c r="F50" s="41"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S50" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T50" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U50" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="14" t="n">
+      <c r="B51" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>46</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37" t="s">
+      <c r="C51" s="19"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="30"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="14" t="n">
+      <c r="B52" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>47</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37" t="s">
+      <c r="C52" s="19"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="30"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="14" t="n">
+      <c r="B53" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>48</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37" t="s">
+      <c r="C53" s="19"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="30"/>
-    </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="14" t="n">
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="39"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>49</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O54" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U54" s="21" t="s">
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T54" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U54" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="14" t="n">
+      <c r="B55" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>50</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="22" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24" t="s">
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T55" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U55" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="14" t="n">
+      <c r="H55" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T55" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>51</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="29" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="30"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="14" t="n">
+      <c r="B57" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>52</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="22" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O57" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T57" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U57" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="14" t="n">
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T57" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U57" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>53</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="35" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O58" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T58" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U58" s="29" t="s">
+      <c r="F58" s="41"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T58" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U58" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="14" t="n">
+      <c r="B59" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>54</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="24" t="s">
+      <c r="G59" s="35"/>
+      <c r="H59" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I59" s="32"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="37"/>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="14" t="n">
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="39"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>55</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="35" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="37"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="39"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="14" t="n">
+      <c r="B61" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>56</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="24" t="s">
+      <c r="G61" s="35"/>
+      <c r="H61" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="37"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="14" t="n">
+      <c r="B62" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>57</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="35" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N62" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O62" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S62" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T62" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U62" s="29" t="s">
+      <c r="F62" s="41"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S62" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T62" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U62" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="14" t="n">
+      <c r="B63" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>58</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="37" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="30"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="14" t="n">
+      <c r="B64" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>59</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="37" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="30"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="14" t="n">
+      <c r="B65" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>60</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="37" t="s">
+      <c r="C65" s="19"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="30"/>
-    </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="14" t="n">
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="39"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>61</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N66" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O66" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S66" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T66" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U66" s="21" t="s">
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T66" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U66" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="14" t="n">
+      <c r="B67" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>62</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="22" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24" t="s">
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H67" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O67" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S67" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U67" s="29" t="s">
+      <c r="H67" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S67" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T67" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U67" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="14" t="n">
+      <c r="B68" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>63</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="37" t="s">
+      <c r="C68" s="19"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="30"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="14" t="n">
+      <c r="B69" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>64</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="37" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="30"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="14" t="n">
+      <c r="B70" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>65</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="37" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="33"/>
-      <c r="S70" s="33"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="30"/>
-    </row>
-    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="14" t="n">
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="39"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>66</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N71" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O71" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T71" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="U71" s="21" t="s">
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T71" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U71" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="14" t="n">
+      <c r="B72" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>67</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="22" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="25" t="s">
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H72" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N72" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O72" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T72" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U72" s="29" t="s">
+      <c r="H72" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T72" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U72" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="14" t="n">
+      <c r="B73" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>68</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="37" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="33"/>
-      <c r="S73" s="33"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="30"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="14" t="n">
+      <c r="B74" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>69</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="37" t="s">
+      <c r="C74" s="19"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
-      <c r="S74" s="33"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="30"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="14" t="n">
+      <c r="B75" s="17" t="n">
         <f aca="false">ROW()-5</f>
         <v>70</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="37" t="s">
+      <c r="C75" s="19"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="30"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="39"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="43"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6731,17 +7221,17 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73:G75">
+  <conditionalFormatting sqref="G73:G76">
     <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H75">
+  <conditionalFormatting sqref="H73:H76">
     <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U73:U75">
+  <conditionalFormatting sqref="U73:U76">
     <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6761,32 +7251,32 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:I75">
+  <conditionalFormatting sqref="I73:I76">
     <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73:J75">
+  <conditionalFormatting sqref="J73:J76">
     <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:K75">
+  <conditionalFormatting sqref="K73:K76">
     <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L73:L75">
+  <conditionalFormatting sqref="L73:L76">
     <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M73:M75">
+  <conditionalFormatting sqref="M73:M76">
     <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N73:N75">
+  <conditionalFormatting sqref="N73:N76">
     <cfRule type="expression" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6821,32 +7311,32 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O73:O75">
+  <conditionalFormatting sqref="O73:O76">
     <cfRule type="expression" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P73:P75">
+  <conditionalFormatting sqref="P73:P76">
     <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q73:Q75">
+  <conditionalFormatting sqref="Q73:Q76">
     <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R73:R75">
+  <conditionalFormatting sqref="R73:R76">
     <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S73:S75">
+  <conditionalFormatting sqref="S73:S76">
     <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T73:T75">
+  <conditionalFormatting sqref="T73:T76">
     <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6881,7 +7371,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75 F73">
+  <conditionalFormatting sqref="F75:F76 F73">
     <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -6893,7 +7383,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -6906,20 +7396,1156 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:X26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="24.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="12" style="2" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="41.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="10.17"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="58"/>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="72"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="72"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="68"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="72"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="68"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="72"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="72"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="68"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="66" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="72"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="72"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="68"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="72"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="72"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="68"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="72"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="72"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="68"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="72"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="68"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="72"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="68"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="72"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="68"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="66" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="72"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="68"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="72"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="68"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="72"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="72"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="68"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="72"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="68"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="72"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="72"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="68"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>15</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="72"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="72"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="68"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="66" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="72"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="72"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="68"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="66" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="72"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="72"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="68"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="66" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>18</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="72"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="68"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="66"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="72"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="68"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="66"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="72"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="68"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="66"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="72"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="68"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="66"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="72"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="68"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="X22:X26 B4:C4 B5:B7 C5:C9 B22:H26 X4:X6 E4:H7 X7 B11:C15 F12:H12 F11:G15 X11:X13 J5:Q9 B22:G26 X20 B20:G20">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8:X9 B8:B9 E8:H9">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D7">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:Q26 I4:Q9 I20 L20:Q20">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10 B11:B13 C11:C15 E10:G10 X11:X13 F12:H12 E11:E15 F11:G13 H13:H15 J11:Q11 K12:Q13">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15 F14:G15">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D15">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I15 K12:Q13">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:Q11">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:Q11">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14:X15">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10:X11">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10:X11">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:Q15">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:Q15">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:W9">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22:W26 R4:W9 R20:W20">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:W13">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:W13">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:W11">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:W11">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:W15">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14:W15">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:C20 X16:X20 E16:H20">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:Q20">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:W20">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21 X21 E21:H21">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:Q21">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21:W21">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
